--- a/data/mobility.xlsx
+++ b/data/mobility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{231070C9-DC3E-4136-A36D-1FACABE50088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81530177-7AE2-43BC-8158-F168521A9467}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{231070C9-DC3E-4136-A36D-1FACABE50088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{601063EA-7548-4601-A541-8E7B018DDCFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>what</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Project: "Can a food systems approach redefine ecosystem-based fisheries management?"</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -986,23 +989,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A2:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,174 +1014,195 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
     </row>

--- a/data/mobility.xlsx
+++ b/data/mobility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{231070C9-DC3E-4136-A36D-1FACABE50088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{601063EA-7548-4601-A541-8E7B018DDCFD}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{231070C9-DC3E-4136-A36D-1FACABE50088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{403836B3-0781-4657-98D2-F47160EA09D0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>what</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Longyearbyen, Svalbard, Norway</t>
   </si>
   <si>
-    <t>Institute of Biology, University of Iceland</t>
-  </si>
-  <si>
     <t>Reykjavík, Iceland</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
     <t>Project: "Impact of climate change on processes that influence survival of Atlantic cod eggs and larvae in Icelandic waters"</t>
   </si>
   <si>
-    <t>2 month</t>
-  </si>
-  <si>
-    <t>8 month</t>
-  </si>
-  <si>
     <t xml:space="preserve">PhD research secondment </t>
   </si>
   <si>
@@ -91,61 +82,25 @@
     <t>Jan - May 2012</t>
   </si>
   <si>
-    <t>5 month</t>
-  </si>
-  <si>
-    <t>May - Jul 2012</t>
-  </si>
-  <si>
-    <t>Graduate Marine and Fisheries Sciences Summer Programme</t>
-  </si>
-  <si>
     <t>Marine Academic Research in Iceland (MARICE), Institute of Biology, University of Iceland</t>
   </si>
   <si>
-    <t>Final grade:  First class with distinction</t>
-  </si>
-  <si>
-    <t>Courses:  "Data Analysis for Scientists using R", "Fisheries Ecology" and "Marine Mammals"</t>
-  </si>
-  <si>
-    <t>Graduate Course Ecosystem-based Management of Arctic Marine Systems</t>
-  </si>
-  <si>
-    <t>Final grade: Excellent</t>
-  </si>
-  <si>
-    <t>International Degree Course Ecology and Conservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland Norway University of Applied Sciences </t>
-  </si>
-  <si>
-    <t>Evenstad, Norway</t>
-  </si>
-  <si>
-    <t>Undergraduate study semester abroad</t>
-  </si>
-  <si>
     <t>Undergraduate research semester abroad</t>
   </si>
   <si>
-    <t>Courses:  "Evolution", "Conservation Biology", "Population Dynamics" and "Practice in Wildlife Research"</t>
-  </si>
-  <si>
-    <t>Aug - Dec 2011</t>
-  </si>
-  <si>
-    <t>Aug - Sep 2014</t>
-  </si>
-  <si>
-    <t>3 month</t>
-  </si>
-  <si>
     <t>Project: "Can a food systems approach redefine ecosystem-based fisheries management?"</t>
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>Duration: 5 month</t>
+  </si>
+  <si>
+    <t>Duration: 8 month</t>
+  </si>
+  <si>
+    <t>Duration: 2 month</t>
   </si>
 </sst>
 </file>
@@ -989,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1028,43 +983,43 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1073,137 +1028,47 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
